--- a/data/trans_bre/P23_DUKE_AF_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AF_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>12,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-22,84%</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>51,46%</t>
+          <t>25,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>105,3%</t>
+          <t>-16,43%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-7,17%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 8,86</t>
+          <t>-8,67; 38,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 12,99</t>
+          <t>-29,65; 15,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 14,25</t>
+          <t>-22,08; 25,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-72,23; 153,14</t>
+          <t>-30,05; 19,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-62,35; 511,09</t>
+          <t>-13,58; 118,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,82; 955,33</t>
+          <t>-45,68; 39,01</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-32,32; 68,5</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-44,59; 51,08</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,7</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,49</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62,78%</t>
+          <t>-15,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-41,84%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-61,36%</t>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-16,47%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 23,92</t>
+          <t>-11,34; 38,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 3,82</t>
+          <t>-15,48; 21,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,1; -0,25</t>
+          <t>-21,51; 23,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,54; 580,57</t>
+          <t>-31,49; -0,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,49; 37,31</t>
+          <t>-15,4; 92,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-86,69; -1,35</t>
+          <t>-18,59; 34,2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-25,75; 44,06</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-33,86; -0,24</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,55</t>
+          <t>-11,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,63</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,68</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-30,62%</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-34,49%</t>
+          <t>-14,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-31,19%</t>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-6,42%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,96%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-29,68; 3,13</t>
+          <t>-24,88; 2,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,89; 2,52</t>
+          <t>-12,32; 14,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,33; 3,31</t>
+          <t>-17,37; 9,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-62,79; 15,69</t>
+          <t>-15,68; 14,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,77; 15,34</t>
+          <t>-28,15; 3,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,83; 17,69</t>
+          <t>-13,99; 20,94</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-19,28; 13,13</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-19,87; 24,79</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,2</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,47</t>
+          <t>13,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,86</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>84,33%</t>
+          <t>-0,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 21,02</t>
+          <t>-10,7; 11,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 26,08</t>
+          <t>0,08; 24,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 23,43</t>
+          <t>-10,09; 17,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,22; 238,91</t>
+          <t>-12,4; 14,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,87; 195,63</t>
+          <t>-12,65; 14,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,23; 225,27</t>
+          <t>0,4; 38,08</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-12,41; 29,35</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-15,07; 22,91</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,16</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-11,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,33</t>
+          <t>-10,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-37,04%</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>82,36%</t>
+          <t>-16,15%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-14,33%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 2,85</t>
+          <t>-15,36; 23,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 13,14</t>
+          <t>-32,09; 7,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 22,49</t>
+          <t>-28,98; 7,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-73,6; 25,79</t>
+          <t>-12,86; 22,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,7; 81,23</t>
+          <t>-21,03; 46,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 286,2</t>
+          <t>-40,25; 11,62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-36,07; 10,64</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-17,55; 38,91</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>-19,15</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,32</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>-19,76</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>-27,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>171,88%</t>
+          <t>11,88%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-25,42%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 20,05</t>
+          <t>-42,83; 2,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 14,57</t>
+          <t>-19,28; 31,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 52,5</t>
+          <t>-22,5; 27,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 254,05</t>
+          <t>-41,49; 1,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,49; 223,82</t>
+          <t>-55,29; 3,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 1345,59</t>
+          <t>-31,6; 85,16</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-33,29; 66,96</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-50,35; 1,8</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>2,75%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-8,63%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 6,44</t>
+          <t>-8,25; 8,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 6,27</t>
+          <t>-5,43; 9,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 11,39</t>
+          <t>-7,37; 8,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 43,49</t>
+          <t>-14,59; 1,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 39,83</t>
+          <t>-11,1; 12,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 78,8</t>
+          <t>-7,43; 14,12</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-9,91; 13,35</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-18,68; 2,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_DUKE_AF_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AF_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12,94</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-8,82</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,79</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>25,73%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-16,43%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,55%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-7,17%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>18.16201458700909</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-9.076172998347721</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.485353183859929</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.771518218106721</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.3883301170453493</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1621189731970077</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.06861504199021957</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.03474135920419134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 38,43</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-29,65; 15,68</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-22,08; 25,53</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-30,05; 19,75</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-13,58; 118,91</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-45,68; 39,01</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-32,32; 68,5</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-44,59; 51,08</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.838150458604133</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-30.27993233281357</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-20.98076704618768</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-27.59395516555331</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.06213971385197033</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4623332758942668</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.318658260850499</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4147702029707532</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>42.88765486989902</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.3810828437465</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>26.14538678271267</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.5035267290434</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.475518813201304</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.3538844438229951</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.7880966716919583</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6183577648985966</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,65</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,04</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,19</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-15,0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,64%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,03%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-16,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,34; 38,18</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-15,48; 21,55</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-21,51; 23,29</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-31,49; -0,16</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-15,4; 92,97</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-18,59; 34,2</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-25,75; 44,06</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-33,86; -0,24</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>13.48873728498394</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.607560382722165</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.820730275214224</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-13.63354747868221</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2144301494108655</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.07689314282383641</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.06992346177169868</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1520055867655802</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-11,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,35</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,38</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-14,62%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-6,42%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-1,96%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.430096368031649</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.47120479113686</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-19.90698750522413</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-31.02395193603549</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.09653363988302718</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1810574525833059</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.243478443692926</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3414759174736911</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-24,88; 2,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,32; 14,28</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,37; 9,64</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-15,68; 14,9</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-28,15; 3,25</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-13,99; 20,94</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-19,28; 13,13</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-19,87; 24,79</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>41.0733604279264</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>25.08994436846632</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>23.30752514753075</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.734882872708167</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.9773468734291083</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.4286708774273256</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.4471013445114904</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.01932790967647286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13,23</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,67</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,35%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>17,87%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,19%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,13%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-13.80094397117579</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.149990282442648</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-7.035986604683952</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.445585085177192</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.164457580117557</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.01454635188489101</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.08309863997088592</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.02037695244459524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,7; 11,0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 24,61</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,09; 17,96</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-12,4; 14,82</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-12,65; 14,7</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 38,08</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-12,41; 29,35</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-15,07; 22,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-26.17235425088048</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.04267533538923</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-18.59425158824212</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-15.74050502877499</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2948074795214245</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1422844560669788</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2077448530818718</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1941534580002205</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.06647285618628006</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.31053227297585</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.24087226764893</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>15.09351977239239</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-0.004077174652362485</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1872287470117912</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.08406917825849759</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2525741567497259</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,68</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-11,53</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-10,72</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,03</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,97%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-16,15%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-14,33%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-15,36; 23,23</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-32,09; 7,4</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-28,98; 7,2</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-12,86; 22,74</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-21,03; 46,76</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-40,25; 11,62</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-36,07; 10,64</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-17,55; 38,91</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.9785122501529187</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>15.2461323298699</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.048384167661789</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.737021448682442</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.01195817227403982</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2122234078631535</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.05758179789383722</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.03738829587820938</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-19,15</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,06</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-19,76</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-27,68%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>11,88%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4,2%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-25,42%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-12.91549024447404</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.9023444220378645</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.79636586182945</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-12.07406082435316</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1453969394892086</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.01491429950255276</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1189547466078839</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1437956582897444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-42,83; 2,01</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-19,28; 31,07</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-22,5; 27,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-41,49; 1,3</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-55,29; 3,55</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-31,6; 85,16</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-33,29; 66,96</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-50,35; 1,8</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.86808405355626</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>27.33308295569327</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>18.7818118957762</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>15.90032713714938</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1472640505422387</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4474299400011392</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3127923670952995</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2586487636908669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-6,39</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,26%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,75%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-8,63%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>3.938000133333008</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-10.88021956182277</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-11.28930670340033</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>4.521286195649998</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.06360002720899215</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.1537518767271499</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.1509483068948584</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.06598582138515059</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,25; 8,21</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; 9,21</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,37; 8,59</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-14,59; 1,63</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-11,1; 12,86</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 14,12</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-9,91; 13,35</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-18,68; 2,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.6775857034395</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-31.8392376518927</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-29.71483048767226</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-14.01507451806043</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.2076898386511287</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.3963880920214384</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.3849459252433124</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.185296543284488</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>23.9591594556191</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.020657415921356</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>6.523024168296784</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>20.5995765048505</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.4655282959978521</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.1437367952944881</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.09261754523568937</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.3502390642735613</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-20.58751338414704</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>6.902886771464811</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.3817446231523358</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-20.22592482007334</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.2962725854971913</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.1330444917035629</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.006694784346767218</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.2626004679621948</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-45.15560159496904</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-18.88203167531198</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-26.63116576688143</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-43.56148309412682</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.5728300865185556</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.3047248283013171</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.3874060147474176</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.5345002363163114</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0.9277101698924719</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>31.57783727368389</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>25.51985464095798</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1.693165942169597</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.02287975415636135</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.8672661221099484</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.6000146898639153</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.01076568897887027</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.6951442013669262</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2.711552672233852</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.1207765057444354</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-5.839653240403441</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.009999533637074016</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.03912643828483689</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.001751797229688845</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.07981030685787072</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.539079295937112</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.816893001326293</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-7.873001285583594</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-14.13193612934768</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.1018442002848972</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.06550714118142459</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.1064217147421841</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.1840999876656245</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.389946488895808</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>10.17007886964563</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>8.014293524285986</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2.442494802268683</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.1487232725170322</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.1544484859344048</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.1266086682751044</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.03562913499376858</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
